--- a/Assignment10.xlsx
+++ b/Assignment10.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\INEURON\Assignment\Excel\Assignment10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B696A85A-D8C2-4AB3-8788-AEEF7B268DFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{655C2EF6-DF20-4FDE-B468-147246DA8409}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -129,16 +129,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -422,7 +422,7 @@
   <dimension ref="A1:P20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -434,11 +434,11 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3">
+      <c r="B1" s="4">
         <v>2014</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
       <c r="E1" s="5">
         <v>2015</v>
       </c>
@@ -446,19 +446,19 @@
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
       <c r="I1" s="5"/>
-      <c r="J1" s="3">
+      <c r="J1" s="4">
         <v>2016</v>
       </c>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="6">
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="3">
         <v>2017</v>
       </c>
-      <c r="O1" s="4">
+      <c r="O1" s="6">
         <v>2018</v>
       </c>
-      <c r="P1" s="4"/>
+      <c r="P1" s="6"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -835,23 +835,23 @@
         <v>1</v>
       </c>
       <c r="B14">
-        <f>SUM(B2:D2)</f>
+        <f ca="1">SUM(OFFSET($A$1,ROWS($1:1),MATCH(B$13,$1:$1,0)-1,,IFERROR(MATCH(C$13,$1:$1,0),COUNTA($2:$2)+1)-MATCH(B$13,$1:$1,0)))</f>
         <v>183</v>
       </c>
       <c r="C14">
-        <f>SUM(E2:I2)</f>
+        <f ca="1">SUM(OFFSET($A$1,ROWS($1:1),MATCH(C$13,$1:$1,0)-1,,IFERROR(MATCH(D$13,$1:$1,0),COUNTA($2:$2)+1)-MATCH(C$13,$1:$1,0)))</f>
         <v>265</v>
       </c>
       <c r="D14">
-        <f>SUM(J2:M2)</f>
+        <f ca="1">SUM(OFFSET($A$1,ROWS($1:1),MATCH(D$13,$1:$1,0)-1,,IFERROR(MATCH(E$13,$1:$1,0),COUNTA($2:$2)+1)-MATCH(D$13,$1:$1,0)))</f>
         <v>295</v>
       </c>
       <c r="E14">
-        <f>SUM(N2)</f>
+        <f ca="1">SUM(OFFSET($A$1,ROWS($1:1),MATCH(E$13,$1:$1,0)-1,,IFERROR(MATCH(F$13,$1:$1,0),COUNTA($2:$2)+1)-MATCH(E$13,$1:$1,0)))</f>
         <v>43</v>
       </c>
       <c r="F14">
-        <f>SUM(O2:P2)</f>
+        <f ca="1">SUM(OFFSET($A$1,ROWS($1:1),MATCH(F$13,$1:$1,0)-1,,IFERROR(MATCH(G$13,$1:$1,0),COUNTA($2:$2)+1)-MATCH(F$13,$1:$1,0)))</f>
         <v>48</v>
       </c>
     </row>
@@ -860,23 +860,23 @@
         <v>2</v>
       </c>
       <c r="B15">
-        <f t="shared" ref="B15:B20" si="0">SUM(B3:D3)</f>
+        <f ca="1">SUM(OFFSET($A$1,ROWS($1:2),MATCH(B$13,$1:$1,0)-1,,IFERROR(MATCH(C$13,$1:$1,0),COUNTA($2:$2)+1)-MATCH(B$13,$1:$1,0)))</f>
         <v>197</v>
       </c>
       <c r="C15">
-        <f t="shared" ref="C15:C20" si="1">SUM(E3:I3)</f>
+        <f ca="1">SUM(OFFSET($A$1,ROWS($1:2),MATCH(C$13,$1:$1,0)-1,,IFERROR(MATCH(D$13,$1:$1,0),COUNTA($2:$2)+1)-MATCH(C$13,$1:$1,0)))</f>
         <v>343</v>
       </c>
       <c r="D15">
-        <f t="shared" ref="D15:D20" si="2">SUM(J3:M3)</f>
+        <f ca="1">SUM(OFFSET($A$1,ROWS($1:2),MATCH(D$13,$1:$1,0)-1,,IFERROR(MATCH(E$13,$1:$1,0),COUNTA($2:$2)+1)-MATCH(D$13,$1:$1,0)))</f>
         <v>259</v>
       </c>
       <c r="E15">
-        <f t="shared" ref="E15:E20" si="3">SUM(N3)</f>
+        <f ca="1">SUM(OFFSET($A$1,ROWS($1:2),MATCH(E$13,$1:$1,0)-1,,IFERROR(MATCH(F$13,$1:$1,0),COUNTA($2:$2)+1)-MATCH(E$13,$1:$1,0)))</f>
         <v>23</v>
       </c>
       <c r="F15">
-        <f t="shared" ref="F15:F20" si="4">SUM(O3:P3)</f>
+        <f ca="1">SUM(OFFSET($A$1,ROWS($1:2),MATCH(F$13,$1:$1,0)-1,,IFERROR(MATCH(G$13,$1:$1,0),COUNTA($2:$2)+1)-MATCH(F$13,$1:$1,0)))</f>
         <v>90</v>
       </c>
     </row>
@@ -885,23 +885,23 @@
         <v>3</v>
       </c>
       <c r="B16">
-        <f t="shared" si="0"/>
+        <f ca="1">SUM(OFFSET($A$1,ROWS($1:3),MATCH(B$13,$1:$1,0)-1,,IFERROR(MATCH(C$13,$1:$1,0),COUNTA($2:$2)+1)-MATCH(B$13,$1:$1,0)))</f>
         <v>142</v>
       </c>
       <c r="C16">
-        <f t="shared" si="1"/>
+        <f ca="1">SUM(OFFSET($A$1,ROWS($1:3),MATCH(C$13,$1:$1,0)-1,,IFERROR(MATCH(D$13,$1:$1,0),COUNTA($2:$2)+1)-MATCH(C$13,$1:$1,0)))</f>
         <v>257</v>
       </c>
       <c r="D16">
-        <f t="shared" si="2"/>
+        <f ca="1">SUM(OFFSET($A$1,ROWS($1:3),MATCH(D$13,$1:$1,0)-1,,IFERROR(MATCH(E$13,$1:$1,0),COUNTA($2:$2)+1)-MATCH(D$13,$1:$1,0)))</f>
         <v>164</v>
       </c>
       <c r="E16">
-        <f t="shared" si="3"/>
+        <f ca="1">SUM(OFFSET($A$1,ROWS($1:3),MATCH(E$13,$1:$1,0)-1,,IFERROR(MATCH(F$13,$1:$1,0),COUNTA($2:$2)+1)-MATCH(E$13,$1:$1,0)))</f>
         <v>67</v>
       </c>
       <c r="F16">
-        <f t="shared" si="4"/>
+        <f ca="1">SUM(OFFSET($A$1,ROWS($1:3),MATCH(F$13,$1:$1,0)-1,,IFERROR(MATCH(G$13,$1:$1,0),COUNTA($2:$2)+1)-MATCH(F$13,$1:$1,0)))</f>
         <v>97</v>
       </c>
     </row>
@@ -910,23 +910,23 @@
         <v>4</v>
       </c>
       <c r="B17">
-        <f t="shared" si="0"/>
+        <f ca="1">SUM(OFFSET($A$1,ROWS($1:4),MATCH(B$13,$1:$1,0)-1,,IFERROR(MATCH(C$13,$1:$1,0),COUNTA($2:$2)+1)-MATCH(B$13,$1:$1,0)))</f>
         <v>85</v>
       </c>
       <c r="C17">
-        <f t="shared" si="1"/>
+        <f ca="1">SUM(OFFSET($A$1,ROWS($1:4),MATCH(C$13,$1:$1,0)-1,,IFERROR(MATCH(D$13,$1:$1,0),COUNTA($2:$2)+1)-MATCH(C$13,$1:$1,0)))</f>
         <v>237</v>
       </c>
       <c r="D17">
-        <f t="shared" si="2"/>
+        <f ca="1">SUM(OFFSET($A$1,ROWS($1:4),MATCH(D$13,$1:$1,0)-1,,IFERROR(MATCH(E$13,$1:$1,0),COUNTA($2:$2)+1)-MATCH(D$13,$1:$1,0)))</f>
         <v>235</v>
       </c>
       <c r="E17">
-        <f t="shared" si="3"/>
+        <f ca="1">SUM(OFFSET($A$1,ROWS($1:4),MATCH(E$13,$1:$1,0)-1,,IFERROR(MATCH(F$13,$1:$1,0),COUNTA($2:$2)+1)-MATCH(E$13,$1:$1,0)))</f>
         <v>12</v>
       </c>
       <c r="F17">
-        <f t="shared" si="4"/>
+        <f ca="1">SUM(OFFSET($A$1,ROWS($1:4),MATCH(F$13,$1:$1,0)-1,,IFERROR(MATCH(G$13,$1:$1,0),COUNTA($2:$2)+1)-MATCH(F$13,$1:$1,0)))</f>
         <v>125</v>
       </c>
     </row>
@@ -935,23 +935,23 @@
         <v>5</v>
       </c>
       <c r="B18">
-        <f t="shared" si="0"/>
+        <f ca="1">SUM(OFFSET($A$1,ROWS($1:5),MATCH(B$13,$1:$1,0)-1,,IFERROR(MATCH(C$13,$1:$1,0),COUNTA($2:$2)+1)-MATCH(B$13,$1:$1,0)))</f>
         <v>97</v>
       </c>
       <c r="C18">
-        <f t="shared" si="1"/>
+        <f ca="1">SUM(OFFSET($A$1,ROWS($1:5),MATCH(C$13,$1:$1,0)-1,,IFERROR(MATCH(D$13,$1:$1,0),COUNTA($2:$2)+1)-MATCH(C$13,$1:$1,0)))</f>
         <v>337</v>
       </c>
       <c r="D18">
-        <f t="shared" si="2"/>
+        <f ca="1">SUM(OFFSET($A$1,ROWS($1:5),MATCH(D$13,$1:$1,0)-1,,IFERROR(MATCH(E$13,$1:$1,0),COUNTA($2:$2)+1)-MATCH(D$13,$1:$1,0)))</f>
         <v>199</v>
       </c>
       <c r="E18">
-        <f t="shared" si="3"/>
+        <f ca="1">SUM(OFFSET($A$1,ROWS($1:5),MATCH(E$13,$1:$1,0)-1,,IFERROR(MATCH(F$13,$1:$1,0),COUNTA($2:$2)+1)-MATCH(E$13,$1:$1,0)))</f>
         <v>87</v>
       </c>
       <c r="F18">
-        <f t="shared" si="4"/>
+        <f ca="1">SUM(OFFSET($A$1,ROWS($1:5),MATCH(F$13,$1:$1,0)-1,,IFERROR(MATCH(G$13,$1:$1,0),COUNTA($2:$2)+1)-MATCH(F$13,$1:$1,0)))</f>
         <v>188</v>
       </c>
     </row>
@@ -960,23 +960,23 @@
         <v>6</v>
       </c>
       <c r="B19">
-        <f t="shared" si="0"/>
+        <f ca="1">SUM(OFFSET($A$1,ROWS($1:6),MATCH(B$13,$1:$1,0)-1,,IFERROR(MATCH(C$13,$1:$1,0),COUNTA($2:$2)+1)-MATCH(B$13,$1:$1,0)))</f>
         <v>157</v>
       </c>
       <c r="C19">
-        <f t="shared" si="1"/>
+        <f ca="1">SUM(OFFSET($A$1,ROWS($1:6),MATCH(C$13,$1:$1,0)-1,,IFERROR(MATCH(D$13,$1:$1,0),COUNTA($2:$2)+1)-MATCH(C$13,$1:$1,0)))</f>
         <v>254</v>
       </c>
       <c r="D19">
-        <f t="shared" si="2"/>
+        <f ca="1">SUM(OFFSET($A$1,ROWS($1:6),MATCH(D$13,$1:$1,0)-1,,IFERROR(MATCH(E$13,$1:$1,0),COUNTA($2:$2)+1)-MATCH(D$13,$1:$1,0)))</f>
         <v>180</v>
       </c>
       <c r="E19">
-        <f t="shared" si="3"/>
+        <f ca="1">SUM(OFFSET($A$1,ROWS($1:6),MATCH(E$13,$1:$1,0)-1,,IFERROR(MATCH(F$13,$1:$1,0),COUNTA($2:$2)+1)-MATCH(E$13,$1:$1,0)))</f>
         <v>5</v>
       </c>
       <c r="F19">
-        <f t="shared" si="4"/>
+        <f ca="1">SUM(OFFSET($A$1,ROWS($1:6),MATCH(F$13,$1:$1,0)-1,,IFERROR(MATCH(G$13,$1:$1,0),COUNTA($2:$2)+1)-MATCH(F$13,$1:$1,0)))</f>
         <v>50</v>
       </c>
     </row>
@@ -985,23 +985,23 @@
         <v>7</v>
       </c>
       <c r="B20">
-        <f t="shared" si="0"/>
+        <f ca="1">SUM(OFFSET($A$1,ROWS($1:7),MATCH(B$13,$1:$1,0)-1,,IFERROR(MATCH(C$13,$1:$1,0),COUNTA($2:$2)+1)-MATCH(B$13,$1:$1,0)))</f>
         <v>193</v>
       </c>
       <c r="C20">
-        <f t="shared" si="1"/>
+        <f ca="1">SUM(OFFSET($A$1,ROWS($1:7),MATCH(C$13,$1:$1,0)-1,,IFERROR(MATCH(D$13,$1:$1,0),COUNTA($2:$2)+1)-MATCH(C$13,$1:$1,0)))</f>
         <v>239</v>
       </c>
       <c r="D20">
-        <f t="shared" si="2"/>
+        <f ca="1">SUM(OFFSET($A$1,ROWS($1:7),MATCH(D$13,$1:$1,0)-1,,IFERROR(MATCH(E$13,$1:$1,0),COUNTA($2:$2)+1)-MATCH(D$13,$1:$1,0)))</f>
         <v>300</v>
       </c>
       <c r="E20">
-        <f t="shared" si="3"/>
+        <f ca="1">SUM(OFFSET($A$1,ROWS($1:7),MATCH(E$13,$1:$1,0)-1,,IFERROR(MATCH(F$13,$1:$1,0),COUNTA($2:$2)+1)-MATCH(E$13,$1:$1,0)))</f>
         <v>10</v>
       </c>
       <c r="F20">
-        <f t="shared" si="4"/>
+        <f ca="1">SUM(OFFSET($A$1,ROWS($1:7),MATCH(F$13,$1:$1,0)-1,,IFERROR(MATCH(G$13,$1:$1,0),COUNTA($2:$2)+1)-MATCH(F$13,$1:$1,0)))</f>
         <v>99</v>
       </c>
     </row>
